--- a/data/long_dif/P24_5-Estudios-long_dif.xlsx
+++ b/data/long_dif/P24_5-Estudios-long_dif.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K27"/>
+  <dimension ref="A1:N44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -526,6 +526,9 @@
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
     <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -542,20 +545,23 @@
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="G1" s="3" t="n"/>
       <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="inlineStr">
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="J1" s="3" t="n"/>
-      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -577,32 +583,47 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>M5-M4</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
           <t>M2-M1</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>M3-M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M4-M3</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M5-M4</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M2-M1</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
         <is>
           <t>M3-M2</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>M4-M3</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M5-M4</t>
         </is>
       </c>
     </row>
@@ -618,6 +639,9 @@
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
       <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -627,52 +651,67 @@
       </c>
       <c r="B4" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>Menos diferencia negativa</t>
         </is>
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>13,6%</t>
+          <t>17,58%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>7,83%</t>
+          <t>8,37%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>17,28%</t>
+          <t>16,86%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>18,56%</t>
+          <t>16,1%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>16,88%</t>
+          <t>19,17%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>22,39%</t>
+          <t>16,94%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>16,27%</t>
+          <t>23,02%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>12,88%</t>
+          <t>21,65%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>20,09%</t>
+          <t>18,43%</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>13,16%</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>20,19%</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>19,23%</t>
         </is>
       </c>
     </row>
@@ -685,47 +724,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>8,87; 19,1</t>
+          <t>10,41; 26,26</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>4,17; 12,34</t>
+          <t>4,17; 15,44</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>12,13; 24,24</t>
+          <t>11,89; 23,11</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>13,67; 25,02</t>
+          <t>9,45; 23,46</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>12,12; 23,58</t>
+          <t>13,03; 27,15</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>17,01; 27,56</t>
+          <t>11,76; 24,57</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>12,35; 20,18</t>
+          <t>18,34; 28,49</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>9,94; 17,01</t>
+          <t>15,37; 29,09</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>16,3; 23,99</t>
+          <t>13,55; 24,23</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>9,38; 18,36</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>16,77; 24,33</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>14,4; 24,3</t>
         </is>
       </c>
     </row>
@@ -733,52 +787,67 @@
       <c r="A6" s="1" t="n"/>
       <c r="B6" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Igual diferencia Cero</t>
         </is>
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>76,47%</t>
+          <t>74,8%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>66,71%</t>
+          <t>73,07%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>67,74%</t>
+          <t>68,45%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>59,21%</t>
+          <t>50,36%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>48,55%</t>
+          <t>60,09%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>51,53%</t>
+          <t>46,5%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>67,18%</t>
+          <t>49,26%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>56,58%</t>
+          <t>52,23%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>58,84%</t>
+          <t>66,92%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>58,21%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>58,07%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>51,42%</t>
         </is>
       </c>
     </row>
@@ -791,47 +860,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>68,15; 83,64</t>
+          <t>65,38; 85,23</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>52,36; 76,01</t>
+          <t>64,04; 81,84</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>60,41; 74,68</t>
+          <t>61,52; 76,2</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>51,88; 66,5</t>
+          <t>29,27; 62,93</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>40,71; 57,12</t>
+          <t>50,52; 68,16</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>45,39; 59,32</t>
+          <t>38,09; 55,91</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>61,46; 72,53</t>
+          <t>43,82; 55,49</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>49,07; 62,88</t>
+          <t>43,23; 60,87</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>54,17; 64,14</t>
+          <t>60,62; 73,84</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>51,58; 65,25</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>53,42; 63,2</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>41,68; 58,19</t>
         </is>
       </c>
     </row>
@@ -839,52 +923,67 @@
       <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>Más Diferencia Positiva</t>
         </is>
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>9,93%</t>
+          <t>7,62%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>25,46%</t>
+          <t>18,57%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>14,98%</t>
+          <t>14,7%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>22,23%</t>
+          <t>33,54%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>34,58%</t>
+          <t>20,74%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>26,08%</t>
+          <t>36,56%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>16,55%</t>
+          <t>27,72%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>30,55%</t>
+          <t>26,11%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>21,08%</t>
+          <t>14,64%</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>28,63%</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>21,74%</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>29,35%</t>
         </is>
       </c>
     </row>
@@ -897,104 +996,130 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>5,83; 17,95</t>
+          <t>3,21; 15,6</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>16,64; 42,87</t>
+          <t>11,35; 26,63</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>10,63; 20,72</t>
+          <t>9,78; 19,9</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>16,68; 28,69</t>
+          <t>20,06; 59,6</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>27,0; 41,91</t>
+          <t>13,63; 30,45</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>20,82; 31,86</t>
+          <t>28,48; 44,59</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>12,64; 21,5</t>
+          <t>22,28; 33,35</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>25,3; 39,17</t>
+          <t>19,56; 35,35</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>17,52; 25,11</t>
+          <t>10,06; 20,52</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>22,76; 34,48</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>18,04; 26,0</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>22,52; 42,36</t>
         </is>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="1" t="inlineStr">
-        <is>
-          <t>Secundaria o FP grado sup</t>
-        </is>
-      </c>
+      <c r="A10" s="1" t="n"/>
       <c r="B10" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>23,23%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>22,24%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>21,76%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>28,76%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>23,4%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>26,21%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>26,01%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>22,82%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>23,93%</t>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
         </is>
       </c>
     </row>
@@ -1007,100 +1132,134 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>18,42; 30,13</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>18,04; 29,04</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>17,84; 26,47</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>24,76; 33,31</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>19,1; 27,78</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>22,13; 29,97</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>22,56; 29,88</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>19,72; 26,19</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>21,3; 27,22</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="n"/>
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Secundaria o FP grado sup</t>
+        </is>
+      </c>
       <c r="B12" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Menos diferencia negativa</t>
         </is>
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>58,08%</t>
+          <t>20,3%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>56,72%</t>
+          <t>24,16%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>53,94%</t>
+          <t>21,66%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>47,81%</t>
+          <t>29,86%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>43,75%</t>
+          <t>28,33%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>47,16%</t>
+          <t>22,68%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>52,93%</t>
+          <t>26,42%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>50,3%</t>
+          <t>28,88%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>50,63%</t>
+          <t>24,46%</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>23,41%</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>23,99%</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>29,38%</t>
         </is>
       </c>
     </row>
@@ -1113,47 +1272,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>52,14; 63,72</t>
+          <t>14,71; 31,83</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>51,08; 62,26</t>
+          <t>17,85; 32,2</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>48,25; 59,24</t>
+          <t>17,59; 26,29</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>43,52; 52,75</t>
+          <t>23,33; 37,59</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>38,91; 48,72</t>
+          <t>23,38; 34,47</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>42,94; 51,83</t>
+          <t>18,61; 28,12</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>48,9; 56,58</t>
+          <t>22,54; 29,98</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>46,33; 53,8</t>
+          <t>24,01; 34,48</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>47,18; 53,93</t>
+          <t>20,49; 29,73</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>19,68; 27,9</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>21,21; 27,01</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>25,27; 34,39</t>
         </is>
       </c>
     </row>
@@ -1161,52 +1335,67 @@
       <c r="A14" s="1" t="n"/>
       <c r="B14" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>Igual diferencia Cero</t>
         </is>
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>18,69%</t>
+          <t>58,21%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>21,03%</t>
+          <t>56,04%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>24,29%</t>
+          <t>54,16%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>23,43%</t>
+          <t>49,78%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>32,85%</t>
+          <t>46,15%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>26,63%</t>
+          <t>44,59%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>21,07%</t>
+          <t>47,05%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>26,88%</t>
+          <t>43,76%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>25,43%</t>
+          <t>51,96%</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>50,24%</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>50,69%</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>46,88%</t>
         </is>
       </c>
     </row>
@@ -1219,104 +1408,130 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>15,31; 23,62</t>
+          <t>50,66; 65,29</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>17,12; 25,45</t>
+          <t>49,05; 63,43</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>19,53; 29,87</t>
+          <t>48,73; 59,54</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>19,74; 27,48</t>
+          <t>42,48; 56,86</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>28,03; 37,5</t>
+          <t>39,9; 52,24</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>22,48; 31,11</t>
+          <t>39,26; 49,77</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>18,3; 24,36</t>
+          <t>42,81; 51,53</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>23,76; 30,33</t>
+          <t>38,3; 49,47</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>22,43; 29,28</t>
+          <t>47,08; 56,95</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>45,76; 54,84</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>47,32; 54,05</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>42,49; 51,17</t>
         </is>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="1" t="inlineStr">
-        <is>
-          <t>Estudios universitarios o más</t>
-        </is>
-      </c>
+      <c r="A16" s="1" t="n"/>
       <c r="B16" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>Más Diferencia Positiva</t>
         </is>
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>24,97%</t>
+          <t>21,49%</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>17,7%</t>
+          <t>19,8%</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>26,12%</t>
+          <t>24,17%</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>29,21%</t>
+          <t>20,36%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>24,45%</t>
+          <t>25,52%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>33,44%</t>
+          <t>32,73%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>27,13%</t>
+          <t>26,53%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>21,14%</t>
+          <t>27,36%</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>29,93%</t>
+          <t>23,58%</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>26,34%</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>25,32%</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>23,74%</t>
         </is>
       </c>
     </row>
@@ -1329,47 +1544,62 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>19,7; 31,03</t>
+          <t>16,52; 27,33</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>13,12; 24,25</t>
+          <t>15,15; 24,58</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>21,51; 31,17</t>
+          <t>19,64; 30,0</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>24,72; 34,07</t>
+          <t>15,78; 27,03</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>19,9; 29,05</t>
+          <t>20,64; 32,44</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>28,67; 38,06</t>
+          <t>27,54; 38,18</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>23,4; 31,44</t>
+          <t>22,69; 30,77</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>17,86; 25,23</t>
+          <t>22,68; 32,69</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>26,65; 33,58</t>
+          <t>19,78; 28,02</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>23,17; 30,33</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>22,35; 28,75</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>20,52; 27,68</t>
         </is>
       </c>
     </row>
@@ -1377,52 +1607,67 @@
       <c r="A18" s="1" t="n"/>
       <c r="B18" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>55,68%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>53,27%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>53,01%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>46,47%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>37,33%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>42,59%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>51,0%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>45,14%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>47,59%</t>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
         </is>
       </c>
     </row>
@@ -1435,100 +1680,134 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>49,11; 61,58</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>46,65; 59,64</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>47,72; 59,32</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>41,31; 51,95</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>32,26; 42,26</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>37,8; 47,4</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>46,68; 54,95</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>41,16; 49,24</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>43,78; 50,98</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="1" t="n"/>
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>Estudios universitarios o más</t>
+        </is>
+      </c>
       <c r="B20" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>Menos diferencia negativa</t>
         </is>
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>19,35%</t>
+          <t>23,91%</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>29,03%</t>
+          <t>17,32%</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>20,86%</t>
+          <t>25,79%</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
+          <t>26,55%</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>32,87%</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
           <t>24,32%</t>
         </is>
       </c>
-      <c r="G20" s="2" t="inlineStr">
-        <is>
-          <t>38,23%</t>
-        </is>
-      </c>
-      <c r="H20" s="2" t="inlineStr">
-        <is>
-          <t>23,97%</t>
-        </is>
-      </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>21,87%</t>
+          <t>33,34%</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>33,72%</t>
+          <t>33,08%</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>22,48%</t>
+          <t>28,71%</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>20,92%</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>29,7%</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>29,93%</t>
         </is>
       </c>
     </row>
@@ -1541,104 +1820,130 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>14,95; 24,44</t>
+          <t>17,69; 30,35</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>23,73; 35,17</t>
+          <t>12,67; 24,92</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>15,95; 25,97</t>
+          <t>20,86; 31,24</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>19,66; 29,44</t>
+          <t>20,81; 35,74</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>33,31; 43,88</t>
+          <t>26,45; 39,02</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>20,15; 28,18</t>
+          <t>20,08; 29,57</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>18,66; 25,6</t>
+          <t>28,5; 37,47</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>30,02; 37,56</t>
+          <t>28,51; 38,43</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>19,21; 25,45</t>
+          <t>24,52; 33,3</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>17,72; 25,45</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>26,45; 33,55</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>26,11; 34,77</t>
         </is>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
+      <c r="A22" s="1" t="n"/>
       <c r="B22" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>Igual diferencia Cero</t>
         </is>
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>21,77%</t>
+          <t>59,66%</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>18,0%</t>
+          <t>52,62%</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>22,16%</t>
+          <t>52,9%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>26,57%</t>
+          <t>50,46%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>22,21%</t>
+          <t>42,73%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>27,57%</t>
+          <t>37,36%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>24,23%</t>
+          <t>42,82%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
         <is>
-          <t>20,16%</t>
+          <t>41,1%</t>
         </is>
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>24,93%</t>
+          <t>50,59%</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>44,76%</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>47,68%</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>45,62%</t>
         </is>
       </c>
     </row>
@@ -1651,47 +1956,62 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>18,61; 26,21</t>
+          <t>52,4; 66,93</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>14,98; 21,57</t>
+          <t>45,81; 59,32</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>19,34; 25,4</t>
+          <t>47,15; 58,41</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>23,7; 29,45</t>
+          <t>42,7; 57,67</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>19,75; 25,2</t>
+          <t>36,53; 49,22</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>24,93; 30,1</t>
+          <t>31,39; 42,48</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>22,07; 26,74</t>
+          <t>38,6; 47,68</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>18,23; 22,56</t>
+          <t>36,18; 46,98</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>23,23; 27,01</t>
+          <t>45,61; 55,56</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>40,5; 49,49</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>43,98; 51,06</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>41,06; 49,79</t>
         </is>
       </c>
     </row>
@@ -1699,52 +2019,67 @@
       <c r="A24" s="1" t="n"/>
       <c r="B24" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Más Diferencia Positiva</t>
         </is>
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>61,14%</t>
+          <t>16,44%</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>57,56%</t>
+          <t>30,06%</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>56,58%</t>
+          <t>21,31%</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>50,02%</t>
+          <t>22,99%</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>42,84%</t>
+          <t>24,4%</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>46,78%</t>
+          <t>38,33%</t>
         </is>
       </c>
       <c r="I24" s="2" t="inlineStr">
         <is>
-          <t>55,45%</t>
+          <t>23,83%</t>
         </is>
       </c>
       <c r="J24" s="2" t="inlineStr">
         <is>
-          <t>50,0%</t>
+          <t>25,82%</t>
         </is>
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>51,56%</t>
+          <t>20,71%</t>
+        </is>
+      </c>
+      <c r="L24" s="2" t="inlineStr">
+        <is>
+          <t>34,32%</t>
+        </is>
+      </c>
+      <c r="M24" s="2" t="inlineStr">
+        <is>
+          <t>22,62%</t>
+        </is>
+      </c>
+      <c r="N24" s="2" t="inlineStr">
+        <is>
+          <t>24,45%</t>
         </is>
       </c>
     </row>
@@ -1757,47 +2092,62 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>56,54; 64,94</t>
+          <t>11,56; 22,35</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>53,5; 61,58</t>
+          <t>23,72; 36,7</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>52,82; 60,13</t>
+          <t>16,36; 27,92</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>46,72; 53,34</t>
+          <t>18,04; 29,17</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>39,46; 46,21</t>
+          <t>19,16; 30,55</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>43,79; 50,03</t>
+          <t>32,99; 44,28</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>52,71; 58,14</t>
+          <t>20,02; 28,0</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>47,41; 52,61</t>
+          <t>21,19; 30,79</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>49,26; 53,95</t>
+          <t>17,21; 24,5</t>
+        </is>
+      </c>
+      <c r="L25" s="2" t="inlineStr">
+        <is>
+          <t>29,94; 38,67</t>
+        </is>
+      </c>
+      <c r="M25" s="2" t="inlineStr">
+        <is>
+          <t>19,75; 26,27</t>
+        </is>
+      </c>
+      <c r="N25" s="2" t="inlineStr">
+        <is>
+          <t>20,81; 28,19</t>
         </is>
       </c>
     </row>
@@ -1805,52 +2155,67 @@
       <c r="A26" s="1" t="n"/>
       <c r="B26" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>17,09%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>24,45%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>21,26%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>23,41%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>34,95%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>25,65%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="I26" s="2" t="inlineStr">
         <is>
-          <t>20,32%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="J26" s="2" t="inlineStr">
         <is>
-          <t>29,84%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="K26" s="2" t="inlineStr">
         <is>
-          <t>23,51%</t>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="L26" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="M26" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="N26" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
         </is>
       </c>
     </row>
@@ -1863,60 +2228,1179 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>14,56; 20,24</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>21,12; 28,61</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>18,39; 24,75</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>20,94; 26,23</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>32,11; 37,99</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>23,21; 28,28</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>18,32; 22,55</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>27,48; 32,46</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>21,49; 25,55</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="inlineStr">
+        <is>
+          <t>No Pertenece a Medición</t>
+        </is>
+      </c>
+      <c r="B28" s="3" t="inlineStr">
+        <is>
+          <t>Menos diferencia negativa</t>
+        </is>
+      </c>
+      <c r="C28" s="2" t="inlineStr">
+        <is>
+          <t>23,93%</t>
+        </is>
+      </c>
+      <c r="D28" s="2" t="inlineStr">
+        <is>
+          <t>15,02%</t>
+        </is>
+      </c>
+      <c r="E28" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="F28" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="G28" s="2" t="inlineStr">
+        <is>
+          <t>23,69%</t>
+        </is>
+      </c>
+      <c r="H28" s="2" t="inlineStr">
+        <is>
+          <t>22,97%</t>
+        </is>
+      </c>
+      <c r="I28" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J28" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K28" s="2" t="inlineStr">
+        <is>
+          <t>23,81%</t>
+        </is>
+      </c>
+      <c r="L28" s="2" t="inlineStr">
+        <is>
+          <t>18,78%</t>
+        </is>
+      </c>
+      <c r="M28" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N28" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n"/>
+      <c r="B29" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C29" s="2" t="inlineStr">
+        <is>
+          <t>19,37; 30,14</t>
+        </is>
+      </c>
+      <c r="D29" s="2" t="inlineStr">
+        <is>
+          <t>9,84; 22,14</t>
+        </is>
+      </c>
+      <c r="E29" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F29" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G29" s="2" t="inlineStr">
+        <is>
+          <t>19,85; 28,11</t>
+        </is>
+      </c>
+      <c r="H29" s="2" t="inlineStr">
+        <is>
+          <t>17,0; 29,71</t>
+        </is>
+      </c>
+      <c r="I29" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J29" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K29" s="2" t="inlineStr">
+        <is>
+          <t>20,62; 27,62</t>
+        </is>
+      </c>
+      <c r="L29" s="2" t="inlineStr">
+        <is>
+          <t>14,59; 23,34</t>
+        </is>
+      </c>
+      <c r="M29" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N29" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n"/>
+      <c r="B30" s="3" t="inlineStr">
+        <is>
+          <t>Igual diferencia Cero</t>
+        </is>
+      </c>
+      <c r="C30" s="2" t="inlineStr">
+        <is>
+          <t>59,68%</t>
+        </is>
+      </c>
+      <c r="D30" s="2" t="inlineStr">
+        <is>
+          <t>59,77%</t>
+        </is>
+      </c>
+      <c r="E30" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="F30" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="G30" s="2" t="inlineStr">
+        <is>
+          <t>53,4%</t>
+        </is>
+      </c>
+      <c r="H30" s="2" t="inlineStr">
+        <is>
+          <t>41,98%</t>
+        </is>
+      </c>
+      <c r="I30" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J30" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K30" s="2" t="inlineStr">
+        <is>
+          <t>56,64%</t>
+        </is>
+      </c>
+      <c r="L30" s="2" t="inlineStr">
+        <is>
+          <t>51,36%</t>
+        </is>
+      </c>
+      <c r="M30" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N30" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="n"/>
+      <c r="B31" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C31" s="2" t="inlineStr">
+        <is>
+          <t>54,23; 66,19</t>
+        </is>
+      </c>
+      <c r="D31" s="2" t="inlineStr">
+        <is>
+          <t>49,6; 68,06</t>
+        </is>
+      </c>
+      <c r="E31" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F31" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G31" s="2" t="inlineStr">
+        <is>
+          <t>48,58; 58,5</t>
+        </is>
+      </c>
+      <c r="H31" s="2" t="inlineStr">
+        <is>
+          <t>33,57; 50,07</t>
+        </is>
+      </c>
+      <c r="I31" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J31" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K31" s="2" t="inlineStr">
+        <is>
+          <t>52,5; 60,59</t>
+        </is>
+      </c>
+      <c r="L31" s="2" t="inlineStr">
+        <is>
+          <t>44,64; 57,14</t>
+        </is>
+      </c>
+      <c r="M31" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N31" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="n"/>
+      <c r="B32" s="3" t="inlineStr">
+        <is>
+          <t>Más Diferencia Positiva</t>
+        </is>
+      </c>
+      <c r="C32" s="2" t="inlineStr">
+        <is>
+          <t>16,39%</t>
+        </is>
+      </c>
+      <c r="D32" s="2" t="inlineStr">
+        <is>
+          <t>25,21%</t>
+        </is>
+      </c>
+      <c r="E32" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="F32" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="G32" s="2" t="inlineStr">
+        <is>
+          <t>22,92%</t>
+        </is>
+      </c>
+      <c r="H32" s="2" t="inlineStr">
+        <is>
+          <t>35,05%</t>
+        </is>
+      </c>
+      <c r="I32" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J32" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K32" s="2" t="inlineStr">
+        <is>
+          <t>19,55%</t>
+        </is>
+      </c>
+      <c r="L32" s="2" t="inlineStr">
+        <is>
+          <t>29,86%</t>
+        </is>
+      </c>
+      <c r="M32" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N32" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n"/>
+      <c r="B33" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C33" s="2" t="inlineStr">
+        <is>
+          <t>12,66; 20,4</t>
+        </is>
+      </c>
+      <c r="D33" s="2" t="inlineStr">
+        <is>
+          <t>17,99; 37,86</t>
+        </is>
+      </c>
+      <c r="E33" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F33" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G33" s="2" t="inlineStr">
+        <is>
+          <t>18,89; 27,28</t>
+        </is>
+      </c>
+      <c r="H33" s="2" t="inlineStr">
+        <is>
+          <t>27,92; 42,59</t>
+        </is>
+      </c>
+      <c r="I33" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J33" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K33" s="2" t="inlineStr">
+        <is>
+          <t>16,92; 22,93</t>
+        </is>
+      </c>
+      <c r="L33" s="2" t="inlineStr">
+        <is>
+          <t>24,48; 36,75</t>
+        </is>
+      </c>
+      <c r="M33" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N33" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n"/>
+      <c r="B34" s="3" t="inlineStr">
+        <is>
+          <t>No Pertenece a Medición</t>
+        </is>
+      </c>
+      <c r="C34" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="D34" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="E34" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="F34" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="G34" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="H34" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="I34" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J34" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K34" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="L34" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="M34" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N34" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n"/>
+      <c r="B35" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B36" s="3" t="inlineStr">
+        <is>
+          <t>Menos diferencia negativa</t>
+        </is>
+      </c>
+      <c r="C36" s="2" t="inlineStr">
+        <is>
+          <t>22,22%</t>
+        </is>
+      </c>
+      <c r="D36" s="2" t="inlineStr">
+        <is>
+          <t>18,31%</t>
+        </is>
+      </c>
+      <c r="E36" s="2" t="inlineStr">
+        <is>
+          <t>21,95%</t>
+        </is>
+      </c>
+      <c r="F36" s="2" t="inlineStr">
+        <is>
+          <t>26,07%</t>
+        </is>
+      </c>
+      <c r="G36" s="2" t="inlineStr">
+        <is>
+          <t>26,54%</t>
+        </is>
+      </c>
+      <c r="H36" s="2" t="inlineStr">
+        <is>
+          <t>22,26%</t>
+        </is>
+      </c>
+      <c r="I36" s="2" t="inlineStr">
+        <is>
+          <t>27,86%</t>
+        </is>
+      </c>
+      <c r="J36" s="2" t="inlineStr">
+        <is>
+          <t>28,6%</t>
+        </is>
+      </c>
+      <c r="K36" s="2" t="inlineStr">
+        <is>
+          <t>24,42%</t>
+        </is>
+      </c>
+      <c r="L36" s="2" t="inlineStr">
+        <is>
+          <t>20,33%</t>
+        </is>
+      </c>
+      <c r="M36" s="2" t="inlineStr">
+        <is>
+          <t>24,96%</t>
+        </is>
+      </c>
+      <c r="N36" s="2" t="inlineStr">
+        <is>
+          <t>27,37%</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="n"/>
+      <c r="B37" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C37" s="2" t="inlineStr">
+        <is>
+          <t>19,26; 26,07</t>
+        </is>
+      </c>
+      <c r="D37" s="2" t="inlineStr">
+        <is>
+          <t>15,67; 23,02</t>
+        </is>
+      </c>
+      <c r="E37" s="2" t="inlineStr">
+        <is>
+          <t>19,16; 24,8</t>
+        </is>
+      </c>
+      <c r="F37" s="2" t="inlineStr">
+        <is>
+          <t>21,99; 31,4</t>
+        </is>
+      </c>
+      <c r="G37" s="2" t="inlineStr">
+        <is>
+          <t>23,64; 29,26</t>
+        </is>
+      </c>
+      <c r="H37" s="2" t="inlineStr">
+        <is>
+          <t>19,74; 25,45</t>
+        </is>
+      </c>
+      <c r="I37" s="2" t="inlineStr">
+        <is>
+          <t>25,43; 30,71</t>
+        </is>
+      </c>
+      <c r="J37" s="2" t="inlineStr">
+        <is>
+          <t>25,74; 31,78</t>
+        </is>
+      </c>
+      <c r="K37" s="2" t="inlineStr">
+        <is>
+          <t>22,32; 26,74</t>
+        </is>
+      </c>
+      <c r="L37" s="2" t="inlineStr">
+        <is>
+          <t>18,4; 22,84</t>
+        </is>
+      </c>
+      <c r="M37" s="2" t="inlineStr">
+        <is>
+          <t>23,18; 26,9</t>
+        </is>
+      </c>
+      <c r="N37" s="2" t="inlineStr">
+        <is>
+          <t>24,9; 30,17</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="n"/>
+      <c r="B38" s="3" t="inlineStr">
+        <is>
+          <t>Igual diferencia Cero</t>
+        </is>
+      </c>
+      <c r="C38" s="2" t="inlineStr">
+        <is>
+          <t>60,82%</t>
+        </is>
+      </c>
+      <c r="D38" s="2" t="inlineStr">
+        <is>
+          <t>58,13%</t>
+        </is>
+      </c>
+      <c r="E38" s="2" t="inlineStr">
+        <is>
+          <t>56,75%</t>
+        </is>
+      </c>
+      <c r="F38" s="2" t="inlineStr">
+        <is>
+          <t>50,13%</t>
+        </is>
+      </c>
+      <c r="G38" s="2" t="inlineStr">
+        <is>
+          <t>49,7%</t>
+        </is>
+      </c>
+      <c r="H38" s="2" t="inlineStr">
+        <is>
+          <t>42,41%</t>
+        </is>
+      </c>
+      <c r="I38" s="2" t="inlineStr">
+        <is>
+          <t>46,2%</t>
+        </is>
+      </c>
+      <c r="J38" s="2" t="inlineStr">
+        <is>
+          <t>44,87%</t>
+        </is>
+      </c>
+      <c r="K38" s="2" t="inlineStr">
+        <is>
+          <t>55,15%</t>
+        </is>
+      </c>
+      <c r="L38" s="2" t="inlineStr">
+        <is>
+          <t>50,11%</t>
+        </is>
+      </c>
+      <c r="M38" s="2" t="inlineStr">
+        <is>
+          <t>51,38%</t>
+        </is>
+      </c>
+      <c r="N38" s="2" t="inlineStr">
+        <is>
+          <t>47,43%</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="n"/>
+      <c r="B39" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C39" s="2" t="inlineStr">
+        <is>
+          <t>56,95; 64,57</t>
+        </is>
+      </c>
+      <c r="D39" s="2" t="inlineStr">
+        <is>
+          <t>53,95; 61,77</t>
+        </is>
+      </c>
+      <c r="E39" s="2" t="inlineStr">
+        <is>
+          <t>53,02; 60,42</t>
+        </is>
+      </c>
+      <c r="F39" s="2" t="inlineStr">
+        <is>
+          <t>44,66; 55,11</t>
+        </is>
+      </c>
+      <c r="G39" s="2" t="inlineStr">
+        <is>
+          <t>46,68; 53,09</t>
+        </is>
+      </c>
+      <c r="H39" s="2" t="inlineStr">
+        <is>
+          <t>39,16; 45,73</t>
+        </is>
+      </c>
+      <c r="I39" s="2" t="inlineStr">
+        <is>
+          <t>43,42; 49,02</t>
+        </is>
+      </c>
+      <c r="J39" s="2" t="inlineStr">
+        <is>
+          <t>41,72; 48,54</t>
+        </is>
+      </c>
+      <c r="K39" s="2" t="inlineStr">
+        <is>
+          <t>52,62; 57,62</t>
+        </is>
+      </c>
+      <c r="L39" s="2" t="inlineStr">
+        <is>
+          <t>47,39; 52,57</t>
+        </is>
+      </c>
+      <c r="M39" s="2" t="inlineStr">
+        <is>
+          <t>49,16; 53,92</t>
+        </is>
+      </c>
+      <c r="N39" s="2" t="inlineStr">
+        <is>
+          <t>44,23; 50,4</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="n"/>
+      <c r="B40" s="3" t="inlineStr">
+        <is>
+          <t>Más Diferencia Positiva</t>
+        </is>
+      </c>
+      <c r="C40" s="2" t="inlineStr">
+        <is>
+          <t>16,96%</t>
+        </is>
+      </c>
+      <c r="D40" s="2" t="inlineStr">
+        <is>
+          <t>23,56%</t>
+        </is>
+      </c>
+      <c r="E40" s="2" t="inlineStr">
+        <is>
+          <t>21,3%</t>
+        </is>
+      </c>
+      <c r="F40" s="2" t="inlineStr">
+        <is>
+          <t>23,81%</t>
+        </is>
+      </c>
+      <c r="G40" s="2" t="inlineStr">
+        <is>
+          <t>23,76%</t>
+        </is>
+      </c>
+      <c r="H40" s="2" t="inlineStr">
+        <is>
+          <t>35,33%</t>
+        </is>
+      </c>
+      <c r="I40" s="2" t="inlineStr">
+        <is>
+          <t>25,94%</t>
+        </is>
+      </c>
+      <c r="J40" s="2" t="inlineStr">
+        <is>
+          <t>26,53%</t>
+        </is>
+      </c>
+      <c r="K40" s="2" t="inlineStr">
+        <is>
+          <t>20,43%</t>
+        </is>
+      </c>
+      <c r="L40" s="2" t="inlineStr">
+        <is>
+          <t>29,57%</t>
+        </is>
+      </c>
+      <c r="M40" s="2" t="inlineStr">
+        <is>
+          <t>23,66%</t>
+        </is>
+      </c>
+      <c r="N40" s="2" t="inlineStr">
+        <is>
+          <t>25,2%</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="n"/>
+      <c r="B41" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C41" s="2" t="inlineStr">
+        <is>
+          <t>14,49; 19,74</t>
+        </is>
+      </c>
+      <c r="D41" s="2" t="inlineStr">
+        <is>
+          <t>20,25; 26,91</t>
+        </is>
+      </c>
+      <c r="E41" s="2" t="inlineStr">
+        <is>
+          <t>18,45; 24,84</t>
+        </is>
+      </c>
+      <c r="F41" s="2" t="inlineStr">
+        <is>
+          <t>19,83; 30,96</t>
+        </is>
+      </c>
+      <c r="G41" s="2" t="inlineStr">
+        <is>
+          <t>21,02; 26,71</t>
+        </is>
+      </c>
+      <c r="H41" s="2" t="inlineStr">
+        <is>
+          <t>32,26; 38,58</t>
+        </is>
+      </c>
+      <c r="I41" s="2" t="inlineStr">
+        <is>
+          <t>23,43; 28,45</t>
+        </is>
+      </c>
+      <c r="J41" s="2" t="inlineStr">
+        <is>
+          <t>23,39; 29,21</t>
+        </is>
+      </c>
+      <c r="K41" s="2" t="inlineStr">
+        <is>
+          <t>18,51; 22,46</t>
+        </is>
+      </c>
+      <c r="L41" s="2" t="inlineStr">
+        <is>
+          <t>27,08; 32,06</t>
+        </is>
+      </c>
+      <c r="M41" s="2" t="inlineStr">
+        <is>
+          <t>21,73; 25,64</t>
+        </is>
+      </c>
+      <c r="N41" s="2" t="inlineStr">
+        <is>
+          <t>22,7; 28,77</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="n"/>
+      <c r="B42" s="3" t="inlineStr">
+        <is>
+          <t>No Pertenece a Medición</t>
+        </is>
+      </c>
+      <c r="C42" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="D42" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="E42" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="F42" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="G42" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="H42" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="I42" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="J42" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="K42" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="L42" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="M42" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="N42" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="n"/>
+      <c r="B43" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C43" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D43" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E43" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F43" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G43" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H43" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I43" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J43" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K43" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L43" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M43" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N43" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
-    <mergeCell ref="C1:E1"/>
-    <mergeCell ref="A22:A27"/>
-    <mergeCell ref="A4:A9"/>
-    <mergeCell ref="F1:H1"/>
-    <mergeCell ref="I1:K1"/>
-    <mergeCell ref="A16:A21"/>
-    <mergeCell ref="A10:A15"/>
+  <mergeCells count="9">
+    <mergeCell ref="A4:A11"/>
+    <mergeCell ref="A12:A19"/>
+    <mergeCell ref="A20:A27"/>
     <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A28:A35"/>
+    <mergeCell ref="A36:A43"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
